--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2378208.115885026</v>
+        <v>-2380689.035710486</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
         <v>327.7628950335566</v>
@@ -1382,7 +1382,7 @@
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>144.3256300181399</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>169.11289752427</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115015</v>
+        <v>34.67534526848159</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>89.94322778176507</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271172</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292096</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443155</v>
@@ -1588,10 +1588,10 @@
         <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649684</v>
@@ -1613,7 +1613,7 @@
         <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>148.478768519762</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>293.0109760703998</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.32064425466221</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
         <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292096</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443155</v>
@@ -1819,7 +1819,7 @@
         <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>150.6236826771888</v>
       </c>
       <c r="V16" t="n">
         <v>225.2174967367016</v>
@@ -1844,22 +1844,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>9.362935956138472</v>
       </c>
       <c r="U17" t="n">
-        <v>9.362935956137903</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290889</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249342</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085023</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721231</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330928</v>
+        <v>154.5302192482722</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860184</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411916</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432839</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0533602654122</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>267.1640487096468</v>
       </c>
       <c r="D20" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>9.36293595613758</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290889</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249342</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085023</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721231</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330928</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860184</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411916</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432839</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S22" t="n">
-        <v>178.273436320685</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>208.0533602654126</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,22 +2318,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245689</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531831</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503346</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762184</v>
+        <v>168.3363911711807</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290889</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249342</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085023</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F25" t="n">
-        <v>133.925459012174</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330928</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860184</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411916</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432839</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,16 +2719,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124554</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,22 +2950,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124554</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124548</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H35" t="n">
         <v>196.9230441592154</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007074</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279485</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383219</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052273</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010725</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846406</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482614</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092312</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621576</v>
+        <v>89.27723295061038</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333679</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>205.412428918175</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3512,13 +3512,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G40" t="n">
-        <v>110.5480262953175</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>143.0438109257879</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,13 +3749,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
-        <v>42.20693826439379</v>
+        <v>42.20693826439383</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621582</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>50.95950582245175</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>135.6235431859981</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,7 +4198,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1627.52968499309</v>
+        <v>1869.626603223583</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.759235312402</v>
+        <v>1527.856153542895</v>
       </c>
       <c r="D11" t="n">
-        <v>954.6856039653753</v>
+        <v>1196.782522195868</v>
       </c>
       <c r="E11" t="n">
-        <v>596.0894186268551</v>
+        <v>838.1863368573473</v>
       </c>
       <c r="F11" t="n">
-        <v>212.2955810969712</v>
+        <v>454.3924993274634</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3071.686111785617</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2845.347702319177</v>
       </c>
       <c r="V11" t="n">
-        <v>3021.735001525323</v>
+        <v>2541.476882235329</v>
       </c>
       <c r="W11" t="n">
-        <v>2696.158413514932</v>
+        <v>2215.900294224939</v>
       </c>
       <c r="X11" t="n">
-        <v>2349.884722513576</v>
+        <v>1869.626603223583</v>
       </c>
       <c r="Y11" t="n">
-        <v>1986.937457797488</v>
+        <v>1869.626603223583</v>
       </c>
     </row>
     <row r="12">
@@ -5109,16 +5109,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>612.8871857316855</v>
+        <v>675.5255757144344</v>
       </c>
       <c r="C13" t="n">
-        <v>471.1430700635021</v>
+        <v>640.4999744331401</v>
       </c>
       <c r="D13" t="n">
-        <v>348.2184979108899</v>
+        <v>517.575402280528</v>
       </c>
       <c r="E13" t="n">
-        <v>227.4974715882206</v>
+        <v>396.8543759578586</v>
       </c>
       <c r="F13" t="n">
-        <v>227.4974715882206</v>
+        <v>277.1564957196719</v>
       </c>
       <c r="G13" t="n">
-        <v>227.4974715882206</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541145</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003739</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705054</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402566</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.369902162335</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="U13" t="n">
-        <v>1651.459102547702</v>
+        <v>1714.097492530451</v>
       </c>
       <c r="V13" t="n">
-        <v>1423.966681601539</v>
+        <v>1486.605071584288</v>
       </c>
       <c r="W13" t="n">
-        <v>1161.741578824302</v>
+        <v>1224.379968807051</v>
       </c>
       <c r="X13" t="n">
-        <v>960.944095186008</v>
+        <v>1023.582485168757</v>
       </c>
       <c r="Y13" t="n">
-        <v>767.3435833022015</v>
+        <v>829.9819732849504</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1781.421951016572</v>
+        <v>2140.018136355092</v>
       </c>
       <c r="C14" t="n">
-        <v>1439.651501335883</v>
+        <v>1798.247686674404</v>
       </c>
       <c r="D14" t="n">
-        <v>1108.577869988856</v>
+        <v>1467.174055327378</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>1108.577869988857</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589727</v>
+        <v>724.7840324589731</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636927</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5309,19 +5309,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3099.267412142732</v>
       </c>
       <c r="V14" t="n">
-        <v>3175.627267548805</v>
+        <v>2795.396592058885</v>
       </c>
       <c r="W14" t="n">
-        <v>2850.050679538414</v>
+        <v>2795.396592058885</v>
       </c>
       <c r="X14" t="n">
-        <v>2503.776988537058</v>
+        <v>2795.396592058885</v>
       </c>
       <c r="Y14" t="n">
-        <v>2140.82972382097</v>
+        <v>2499.42590915949</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>515.8794954802772</v>
+        <v>590.7166931409544</v>
       </c>
       <c r="C16" t="n">
-        <v>515.8794954802772</v>
+        <v>448.9725774727711</v>
       </c>
       <c r="D16" t="n">
-        <v>515.8794954802772</v>
+        <v>326.0480053201591</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802772</v>
+        <v>326.0480053201591</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420905</v>
+        <v>326.0480053201591</v>
       </c>
       <c r="G16" t="n">
-        <v>255.670845876533</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
@@ -5446,40 +5446,40 @@
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162334</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991584</v>
+        <v>1781.433743974334</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376951</v>
+        <v>1629.288609956971</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430788</v>
+        <v>1401.796189010808</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535513</v>
+        <v>1139.571086233571</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152576</v>
+        <v>938.7736025952769</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314511</v>
+        <v>745.1730907114704</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1855.320338666651</v>
       </c>
       <c r="C17" t="n">
         <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446365</v>
+        <v>966.2289711446359</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628258</v>
+        <v>629.8847665628252</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,28 +5513,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5543,22 +5543,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3316.148310542365</v>
       </c>
       <c r="U17" t="n">
-        <v>3316.148310542366</v>
+        <v>3316.148310542365</v>
       </c>
       <c r="V17" t="n">
-        <v>3059.727123406592</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344275</v>
+        <v>2781.600168344274</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290992</v>
+        <v>2482.776110290991</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522977</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5568,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.121778987229</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671191</v>
+        <v>537.8572904034449</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625803</v>
+        <v>462.3823511989062</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879841</v>
+        <v>389.11095782431</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978706</v>
+        <v>316.8627105341967</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604117</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5701,22 +5701,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729439</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062879</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356255</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454051</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096719</v>
+        <v>739.1585377459976</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666652</v>
+        <v>1830.862197398327</v>
       </c>
       <c r="C20" t="n">
         <v>1560.999521934037</v>
@@ -5735,7 +5735,7 @@
         <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446365</v>
+        <v>966.2289711446364</v>
       </c>
       <c r="F20" t="n">
         <v>629.8847665628259</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3316.148310542366</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.727123406592</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.600168344275</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.776110290992</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522977</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5823,19 +5823,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.121778987229</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671191</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625803</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879841</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978706</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604117</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5911,13 +5911,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952116</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729439</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062879</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
         <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356255</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454051</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096719</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.094609534935</v>
+        <v>973.0946095349356</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.750404953125</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
         <v>73.3777548224824</v>
@@ -5990,25 +5990,25 @@
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391688</v>
+        <v>1917.058658516338</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2463.837475575121</v>
       </c>
       <c r="O23" t="n">
-        <v>2630.393665329807</v>
+        <v>2966.809946454458</v>
       </c>
       <c r="P23" t="n">
-        <v>3296.525057137383</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893065</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
         <v>3668.88774112412</v>
@@ -6017,22 +6017,22 @@
         <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6054,22 +6054,22 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.886940783077</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130995</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
         <v>772.017383606112</v>
@@ -6078,7 +6078,7 @@
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138529</v>
+        <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>544.722928793743</v>
+        <v>481.6929346574177</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892042</v>
+        <v>406.2179954528789</v>
       </c>
       <c r="E25" t="n">
-        <v>395.976596214608</v>
+        <v>332.9466020782828</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881696</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634014</v>
+        <v>96.0617317963401</v>
       </c>
       <c r="I25" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663394</v>
+        <v>983.2044142663393</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,13 +6166,13 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478792</v>
+        <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1801.927245478739</v>
       </c>
       <c r="T25" t="n">
         <v>1654.802330256063</v>
@@ -6184,13 +6184,13 @@
         <v>1260.298375591413</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762249</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>892.175055072029</v>
+        <v>892.1750550720292</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362958</v>
+        <v>746.0241761362961</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,25 +6224,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>2200.835586644152</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2747.614403702934</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3250.586874582271</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3645.361240939449</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277655</v>
@@ -6303,19 +6303,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913842</v>
@@ -6382,13 +6382,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6464,31 +6464,31 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>1092.155029011367</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1543.189242259776</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2076.7211469317</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2623.499963990483</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3126.47243486982</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3521.246801226998</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T29" t="n">
         <v>3835.976694641921</v>
@@ -6497,13 +6497,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6540,28 +6540,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913847</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.79051496434</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="32">
@@ -6698,31 +6698,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910142</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.09431497013</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849467</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3672.421873296413</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6734,7 +6734,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6777,28 +6777,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6856,13 +6856,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960301</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973131</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982159</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,40 +6947,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -7005,28 +7005,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.259395817092</v>
+        <v>444.8926667912276</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630285</v>
+        <v>374.6279184371642</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245363</v>
+        <v>323.182713598672</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159866</v>
+        <v>273.9410545901224</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>225.7225416660556</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>156.6911396146181</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304659</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673487</v>
+        <v>877.9803925153276</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431749</v>
+        <v>649.9908416173103</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734882</v>
+        <v>527.8696970476237</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7190,34 +7190,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650711</v>
+        <v>500.930830390936</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110077</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725154</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639657</v>
+        <v>329.9792181898303</v>
       </c>
       <c r="F40" t="n">
-        <v>225.7225416660554</v>
+        <v>281.7607052657633</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1471.20877751071</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891713</v>
+        <v>934.0185561150364</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649975</v>
+        <v>804.7004397908624</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214673</v>
+        <v>583.9078606473323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,61 +7394,61 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>740.9069705127578</v>
+        <v>444.8926667912272</v>
       </c>
       <c r="C43" t="n">
-        <v>571.9707875848509</v>
+        <v>374.6279184371637</v>
       </c>
       <c r="D43" t="n">
-        <v>520.5255827463585</v>
+        <v>323.1827135986715</v>
       </c>
       <c r="E43" t="n">
-        <v>372.6124891639654</v>
+        <v>273.9410545901218</v>
       </c>
       <c r="F43" t="n">
-        <v>225.722541666055</v>
+        <v>225.7225416660549</v>
       </c>
       <c r="G43" t="n">
-        <v>156.6911396146174</v>
+        <v>156.6911396146173</v>
       </c>
       <c r="H43" t="n">
         <v>109.1453874063186</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429975</v>
+        <v>626.5411316214669</v>
       </c>
     </row>
     <row r="44">
@@ -7631,67 +7631,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
@@ -7722,7 +7722,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
@@ -7731,7 +7731,7 @@
         <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,34 +7743,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>651.076513270286</v>
+        <v>598.2565075725902</v>
       </c>
       <c r="C46" t="n">
-        <v>482.1403303423791</v>
+        <v>527.9917592185267</v>
       </c>
       <c r="D46" t="n">
-        <v>332.0236909300434</v>
+        <v>476.5465543800344</v>
       </c>
       <c r="E46" t="n">
-        <v>282.7820319214936</v>
+        <v>427.3048953714847</v>
       </c>
       <c r="F46" t="n">
-        <v>234.5635189974267</v>
+        <v>379.0863824474179</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5321169459891</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>117.9863647376903</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1744.449641246691</v>
+        <v>1790.301070122838</v>
       </c>
       <c r="T46" t="n">
-        <v>1522.683025816217</v>
+        <v>1568.534454692364</v>
       </c>
       <c r="U46" t="n">
-        <v>1332.251593515704</v>
+        <v>1279.431587818008</v>
       </c>
       <c r="V46" t="n">
-        <v>1176.23853988366</v>
+        <v>1123.418534185964</v>
       </c>
       <c r="W46" t="n">
-        <v>985.4928044205431</v>
+        <v>932.6727987228469</v>
       </c>
       <c r="X46" t="n">
-        <v>856.1746880963691</v>
+        <v>803.354682398673</v>
       </c>
       <c r="Y46" t="n">
-        <v>734.0535435266823</v>
+        <v>681.2335378289864</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430631</v>
+        <v>157.235310843063</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729008</v>
+        <v>184.4039433729007</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389604</v>
+        <v>191.4948909389603</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333068</v>
+        <v>181.0856325333066</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830241</v>
+        <v>179.355374883024</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383991</v>
+        <v>182.8301554383989</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586585</v>
+        <v>190.8908035586584</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266124</v>
+        <v>192.0103836266123</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,25 +8532,25 @@
         <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372533</v>
+        <v>113.6031223372532</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672274</v>
+        <v>105.9629718672273</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253593</v>
+        <v>104.1013981253592</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677658</v>
+        <v>92.30246558677644</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359736</v>
+        <v>106.8829608359735</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798324</v>
+        <v>105.3113487798323</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615458</v>
+        <v>120.8212784615457</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564658</v>
+        <v>116.1755252564657</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085228</v>
+        <v>119.1996074085227</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140778</v>
+        <v>108.4284123140777</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530925</v>
+        <v>120.6694600530924</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662705</v>
+        <v>122.5080856662704</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.8144253784358</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>274.0980055054521</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>105.7385611944685</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q29" t="n">
-        <v>165.3902622431539</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.40458911672741</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>21.13839585591467</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>239.6759490481871</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579973</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104947</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524938</v>
+        <v>7.884926028223703</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>105.6513292430198</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>27.89164054542933</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579957</v>
+        <v>14.65678318579955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104947</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>152.3533433632465</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>66.30681599852736</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.59118934014872</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>108.6680089412976</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245691</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>120.6597509777627</v>
       </c>
       <c r="U17" t="n">
-        <v>167.7369527970451</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>24.21355985564173</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245689</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>167.7369527970454</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1321954.846427007</v>
+        <v>1321954.846427008</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1321954.846427008</v>
+        <v>1321954.846427007</v>
       </c>
     </row>
     <row r="9">
@@ -26314,31 +26314,31 @@
         <v>81927.63387170385</v>
       </c>
       <c r="C2" t="n">
-        <v>81927.63387170383</v>
+        <v>81927.63387170382</v>
       </c>
       <c r="D2" t="n">
-        <v>81929.8669805946</v>
+        <v>81929.86698059464</v>
       </c>
       <c r="E2" t="n">
         <v>72954.00009049747</v>
       </c>
       <c r="F2" t="n">
-        <v>72954.00009049747</v>
+        <v>72954.00009049744</v>
       </c>
       <c r="G2" t="n">
-        <v>79453.08212465365</v>
+        <v>79453.08212465358</v>
       </c>
       <c r="H2" t="n">
-        <v>79453.08212465358</v>
+        <v>79453.08212465364</v>
       </c>
       <c r="I2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642834</v>
@@ -26347,13 +26347,13 @@
         <v>82104.17698642831</v>
       </c>
       <c r="N2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="O2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.17698642834</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.5536755228</v>
+        <v>59764.55367552301</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163632</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995426</v>
+        <v>421637.9387995425</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362508</v>
+        <v>38804.27401362512</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362508</v>
+        <v>38804.27401362511</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.43437506733</v>
+        <v>75832.43437506734</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506731</v>
+        <v>75832.43437506742</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.16093451303</v>
+        <v>88045.16093451311</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173087</v>
+        <v>84858.15940173093</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173087</v>
+        <v>84858.15940173093</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.1594017309</v>
+        <v>84858.15940173094</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815721</v>
       </c>
       <c r="N4" t="n">
+        <v>90964.01098815708</v>
+      </c>
+      <c r="O4" t="n">
+        <v>90964.01098815714</v>
+      </c>
+      <c r="P4" t="n">
         <v>90964.01098815713</v>
-      </c>
-      <c r="O4" t="n">
-        <v>90964.0109881571</v>
-      </c>
-      <c r="P4" t="n">
-        <v>90964.0109881571</v>
       </c>
     </row>
     <row r="5">
@@ -26494,22 +26494,22 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="N5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="O5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="P5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82518.59730624985</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624985</v>
-      </c>
-      <c r="P5" t="n">
-        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393349.2161241166</v>
+        <v>-393353.6297019847</v>
       </c>
       <c r="C6" t="n">
-        <v>-393349.2161241167</v>
+        <v>-393353.6297019848</v>
       </c>
       <c r="D6" t="n">
-        <v>-434621.5309263372</v>
+        <v>-434625.8886764831</v>
       </c>
       <c r="E6" t="n">
-        <v>-1131658.736451586</v>
+        <v>-1131887.490873984</v>
       </c>
       <c r="F6" t="n">
-        <v>-42419.76428795404</v>
+        <v>-42648.51871035236</v>
       </c>
       <c r="G6" t="n">
-        <v>-114478.1046705026</v>
+        <v>-114544.3820420471</v>
       </c>
       <c r="H6" t="n">
-        <v>-76897.99537562863</v>
+        <v>-76964.27274717303</v>
       </c>
       <c r="I6" t="n">
         <v>-114498.9800797605</v>
       </c>
       <c r="J6" t="n">
-        <v>-117541.3571119055</v>
+        <v>-117541.3571119056</v>
       </c>
       <c r="K6" t="n">
-        <v>-92131.92409010865</v>
+        <v>-92131.92409010872</v>
       </c>
       <c r="L6" t="n">
         <v>-129712.0333849828</v>
       </c>
       <c r="M6" t="n">
-        <v>-293546.5313007029</v>
+        <v>-293546.5313007031</v>
       </c>
       <c r="N6" t="n">
+        <v>-91378.43130797845</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-91378.43130797872</v>
+      </c>
+      <c r="P6" t="n">
         <v>-91378.43130797864</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-91378.43130797854</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-91378.43130797861</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M2" t="n">
+        <v>97.68472022810511</v>
+      </c>
+      <c r="N2" t="n">
+        <v>97.68472022810492</v>
+      </c>
+      <c r="O2" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810495</v>
-      </c>
-      <c r="P2" t="n">
-        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790644</v>
+        <v>69.78465283790668</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951241</v>
+        <v>50.70958360951249</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790644</v>
+        <v>69.78465283790668</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755392</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
         <v>199.6603204104727</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780175</v>
+        <v>132.2465643780174</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036572</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672106</v>
+        <v>84.22861846672104</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987517</v>
+        <v>90.83829126987514</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519083</v>
+        <v>84.4622088851908</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990328</v>
+        <v>7.649035050990278</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317052</v>
+        <v>75.62456067317048</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712638</v>
+        <v>26.92014658712641</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571894</v>
+        <v>11.49558901075605</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T19" t="n">
-        <v>11.49558901075702</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S22" t="n">
-        <v>11.49558901075687</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571894</v>
+        <v>11.49558901075659</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571894</v>
+        <v>11.49558901075656</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F25" t="n">
-        <v>11.49558901075724</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859134</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859114</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810502</v>
+        <v>55.4777819637104</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>46.72521440565296</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810511</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G40" t="n">
-        <v>55.47778196371075</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,25 +30426,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>46.72521440565399</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30618,25 +30618,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>54.1454821454443</v>
+        <v>54.14548214544428</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>45.39291458738634</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>54.14548214544382</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413322</v>
+        <v>0.2805413179413331</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366669</v>
+        <v>2.873093772366679</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993322</v>
+        <v>10.81556915993326</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362316</v>
+        <v>23.81059368362325</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207976</v>
+        <v>35.68590767207989</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102681</v>
+        <v>44.27152403102697</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396598</v>
+        <v>49.26060069396615</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135668</v>
+        <v>50.05768871356697</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328767</v>
+        <v>47.26805598328784</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661102</v>
+        <v>40.34219219661117</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783706</v>
+        <v>30.29530624783716</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313223</v>
+        <v>17.62255356313229</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588114</v>
+        <v>6.392835282588136</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288182</v>
+        <v>1.228069619288187</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530657</v>
+        <v>0.02244330543530665</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796478</v>
+        <v>0.1501028381796483</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840283</v>
+        <v>1.449677410840288</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694015</v>
+        <v>5.168014384694033</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906927</v>
+        <v>14.18142647906932</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710567</v>
+        <v>24.23831663710576</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264678</v>
+        <v>32.59140791264689</v>
       </c>
       <c r="M9" t="n">
-        <v>38.032635796659</v>
+        <v>38.03263579665914</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655674</v>
+        <v>39.03924649655687</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847085</v>
+        <v>35.71328360847097</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449784</v>
+        <v>28.66305863449794</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447575</v>
+        <v>19.16049562447581</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767962</v>
+        <v>9.319542882767994</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608807</v>
+        <v>2.788094384608817</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890188</v>
+        <v>0.6050197731890209</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345254</v>
+        <v>0.009875186722345289</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486837</v>
+        <v>0.1258411772486842</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811025</v>
+        <v>1.118842466811029</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078599</v>
+        <v>3.784387403078612</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481938</v>
+        <v>8.89697123148197</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489252</v>
+        <v>14.62045677489257</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477249</v>
+        <v>18.70915102477256</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7261765390823</v>
+        <v>19.72617653908237</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115541</v>
+        <v>19.25713215115547</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875032</v>
+        <v>17.78707839875038</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287716</v>
+        <v>15.21991838287721</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852387</v>
+        <v>10.53748257852391</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381723</v>
+        <v>5.658276933381742</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233878</v>
+        <v>2.193068516233886</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625576</v>
+        <v>0.5376850300625594</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564574</v>
+        <v>0.006864064213564599</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,10 +32546,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32558,28 +32558,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019261</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
         <v>371.7770927546665</v>
@@ -35583,10 +35583,10 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019261</v>
+        <v>72.49856320019263</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
@@ -35823,7 +35823,7 @@
         <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129129</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36206,19 +36206,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>878.7355412086623</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>672.859991724824</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597689</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>827.137011779455</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>356.532865998188</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,13 +36762,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637028</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q29" t="n">
-        <v>416.1845670468734</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,16 +36996,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>329.1988939204469</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>80.75159439813939</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165753</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.608516012075</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
